--- a/outputs-HGR-r202/g__Veillonella_A.xlsx
+++ b/outputs-HGR-r202/g__Veillonella_A.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,11 @@
           <t>s__Veillonella_A sp000431435</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>s__Veillonella_A sp000431435</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +523,11 @@
           <t>s__Veillonella_A sp000431435</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>s__Veillonella_A sp000431435</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -537,6 +552,11 @@
           <t>s__Veillonella_A magna</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>s__Veillonella_A magna</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -561,6 +581,11 @@
           <t>s__Veillonella_A sp000431435</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>s__Veillonella_A sp000431435</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -585,6 +610,11 @@
           <t>s__Veillonella_A sp000431435</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>s__Veillonella_A sp000431435</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -609,6 +639,11 @@
           <t>s__Veillonella_A sp000431435</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>s__Veillonella_A sp000431435</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -633,6 +668,11 @@
           <t>s__Veillonella_A sp000431435</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>s__Veillonella_A sp000431435</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -653,6 +693,11 @@
         <v>0.9858972268397291</v>
       </c>
       <c r="F9" t="inlineStr">
+        <is>
+          <t>s__Veillonella_A sp000431435</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>s__Veillonella_A sp000431435</t>
         </is>
